--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2251125.073181036</v>
+        <v>-2254176.317134877</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>300.1314489385849</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>22.68424084367689</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>81.52819291375849</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>170.4680734152627</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,16 +716,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>118.9283458032787</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>113.2870337730225</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>247.8671332950582</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -944,13 +944,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>381.4270211258686</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>25.05231662148192</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>79.0970521767109</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>150.5031652935617</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>266.9607929611324</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>156.1271626621471</v>
+        <v>43.60936768774919</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>13.8907283799716</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>91.38378273163988</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1622,7 +1622,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,13 +1771,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>11.42437928702318</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,10 +1895,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>163.6898441249706</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2293,7 +2293,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>270.0697021486461</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6353666620244</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2482,19 +2482,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E25" t="n">
-        <v>122.1493151545294</v>
+        <v>101.2531088021767</v>
       </c>
       <c r="F25" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>141.7411607669885</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>120.4703674222811</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>72.06777291779841</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>64.64750517800763</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>53.80296839986718</v>
+        <v>165.4843778394022</v>
       </c>
       <c r="T25" t="n">
         <v>195.2643017841295</v>
@@ -2533,13 +2533,13 @@
         <v>261.9271907135732</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W25" t="n">
         <v>262.2383508445513</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y25" t="n">
         <v>194.3000058600551</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2719,7 +2719,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,10 +2953,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541848</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3010,7 +3010,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,10 +3424,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3436,13 +3436,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652577</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
         <v>193.1208028352485</v>
@@ -3955,16 +3955,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="44">
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>494.5603904410124</v>
+        <v>1006.551839123411</v>
       </c>
       <c r="C2" t="n">
-        <v>494.5603904410124</v>
+        <v>1006.551839123411</v>
       </c>
       <c r="D2" t="n">
-        <v>136.2946918342619</v>
+        <v>648.2861405166606</v>
       </c>
       <c r="E2" t="n">
-        <v>136.2946918342619</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F2" t="n">
-        <v>136.2946918342619</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>136.2946918342619</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2469.930428401985</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2251.295761374048</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1997.53397601214</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1997.53397601214</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.765320742026</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1271.299562480946</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>881.1602305051342</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4410,22 +4410,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2469.840903686824</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C4" t="n">
-        <v>2469.840903686824</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>2469.840903686824</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>2469.840903686824</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>2469.840903686824</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2300.841103425157</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2143.092730857687</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>2469.840903686824</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>2469.840903686824</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>2469.840903686824</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>2469.840903686824</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>2469.840903686824</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y4" t="n">
-        <v>2469.840903686824</v>
+        <v>385.7080860629399</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1568.149526959219</v>
+        <v>924.4350995402963</v>
       </c>
       <c r="C5" t="n">
-        <v>1317.778685247039</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
         <v>548.527081850681</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1958.288858935031</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y5" t="n">
-        <v>1568.149526959219</v>
+        <v>924.4350995402963</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,16 +4644,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>302.7751770479794</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="C7" t="n">
-        <v>133.8389941200724</v>
+        <v>340.388532134052</v>
       </c>
       <c r="D7" t="n">
-        <v>133.8389941200724</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>133.8389941200724</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>133.8389941200724</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>133.8389941200724</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>133.8389941200724</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782191</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782191</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782191</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782191</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="W7" t="n">
-        <v>484.4236418782191</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="X7" t="n">
-        <v>484.4236418782191</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="Y7" t="n">
-        <v>484.4236418782191</v>
+        <v>365.6939024587812</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1450.540220654586</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C8" t="n">
-        <v>1081.577703714175</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D8" t="n">
-        <v>723.3120051074243</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>337.52375250918</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988822</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.140060718708</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="X8" t="n">
-        <v>1837.140060718708</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y8" t="n">
-        <v>1837.140060718708</v>
+        <v>1873.842488573869</v>
       </c>
     </row>
     <row r="9">
@@ -4890,7 +4890,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>570.4247794971948</v>
+        <v>535.9324592893566</v>
       </c>
       <c r="T10" t="n">
-        <v>343.1165921657965</v>
+        <v>535.9324592893566</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036446</v>
+        <v>535.9324592893566</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036446</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036446</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>281.2479710834698</v>
       </c>
     </row>
     <row r="11">
@@ -5021,16 +5021,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5045,16 +5045,16 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M11" t="n">
-        <v>2432.390822294613</v>
+        <v>2750.97154338438</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353395</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P11" t="n">
         <v>4195.497197679678</v>
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468568</v>
@@ -5121,16 +5121,16 @@
         <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5139,7 +5139,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5148,22 +5148,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>278.5282561439494</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="C13" t="n">
-        <v>109.5920732160425</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D13" t="n">
-        <v>109.5920732160425</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E13" t="n">
-        <v>109.5920732160425</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F13" t="n">
-        <v>109.5920732160425</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
         <v>95.56103444839442</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1672.350730687449</v>
       </c>
       <c r="U13" t="n">
-        <v>1453.060509258584</v>
+        <v>1383.247863813093</v>
       </c>
       <c r="V13" t="n">
-        <v>1198.376021052697</v>
+        <v>1128.563375607206</v>
       </c>
       <c r="W13" t="n">
-        <v>908.9588510157366</v>
+        <v>839.1462055702453</v>
       </c>
       <c r="X13" t="n">
-        <v>680.9693001177193</v>
+        <v>611.156654672228</v>
       </c>
       <c r="Y13" t="n">
-        <v>460.1767209741892</v>
+        <v>390.3640755286979</v>
       </c>
     </row>
     <row r="14">
@@ -5258,19 +5258,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>390.3640755286979</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C16" t="n">
-        <v>390.3640755286979</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D16" t="n">
-        <v>390.3640755286979</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E16" t="n">
-        <v>242.4509819463048</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1854.973231804633</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1633.206616374159</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1344.103749499802</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1089.419261293915</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W16" t="n">
-        <v>800.0020912569549</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X16" t="n">
-        <v>572.0125403589376</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y16" t="n">
-        <v>572.0125403589376</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5498,13 +5498,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551623</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,28 +5513,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L17" t="n">
-        <v>1898.858917622688</v>
+        <v>1614.698881814247</v>
       </c>
       <c r="M17" t="n">
-        <v>2432.390822294613</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353395</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5549,16 +5549,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5583,7 +5583,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5592,13 +5592,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1120.662598458018</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="C19" t="n">
-        <v>951.7264155301116</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="D19" t="n">
-        <v>801.6097761177758</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="E19" t="n">
-        <v>653.6966825353827</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5674,7 +5674,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1956.343466104704</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1956.343466104704</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W19" t="n">
-        <v>1751.093193329805</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X19" t="n">
-        <v>1523.103642431788</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y19" t="n">
-        <v>1302.311063288258</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5726,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089262</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277731</v>
       </c>
       <c r="K20" t="n">
-        <v>785.6651881176192</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1339.447785386688</v>
+        <v>1557.603359811482</v>
       </c>
       <c r="M20" t="n">
-        <v>2317.998088216516</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3297.750360443163</v>
+        <v>2637.914081542189</v>
       </c>
       <c r="O20" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
         <v>4195.497197679678</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
@@ -5862,7 +5862,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5911,43 +5911,43 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413808</v>
       </c>
       <c r="X22" t="n">
         <v>498.0020784221642</v>
@@ -5978,37 +5978,37 @@
         <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074201</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972667</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750622</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483405</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542187</v>
+        <v>3441.080929807097</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750057</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107235</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862917</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6042,49 +6042,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
@@ -6099,7 +6099,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>948.9529697264246</v>
+        <v>467.8298303422706</v>
       </c>
       <c r="C25" t="n">
-        <v>804.546733760174</v>
+        <v>323.42359437602</v>
       </c>
       <c r="D25" t="n">
-        <v>678.9600413094945</v>
+        <v>197.8369019253406</v>
       </c>
       <c r="E25" t="n">
-        <v>555.5768946887576</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>433.2168941525035</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>290.0440044888788</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>168.3567646683928</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6148,10 +6148,10 @@
         <v>164.7254679124493</v>
       </c>
       <c r="K25" t="n">
-        <v>392.7544518784449</v>
+        <v>392.7544518784451</v>
       </c>
       <c r="L25" t="n">
-        <v>733.3560513440603</v>
+        <v>733.3560513440607</v>
       </c>
       <c r="M25" t="n">
         <v>1101.554897960729</v>
@@ -6160,37 +6160,37 @@
         <v>1467.005075683713</v>
       </c>
       <c r="O25" t="n">
-        <v>1790.376475621245</v>
+        <v>1790.376475621246</v>
       </c>
       <c r="P25" t="n">
-        <v>2047.025777072024</v>
+        <v>2047.025777072025</v>
       </c>
       <c r="Q25" t="n">
-        <v>2148.677874241658</v>
+        <v>2148.677874241659</v>
       </c>
       <c r="R25" t="n">
-        <v>2083.377363960843</v>
+        <v>2148.677874241659</v>
       </c>
       <c r="S25" t="n">
-        <v>2029.030931233704</v>
+        <v>1981.521937030142</v>
       </c>
       <c r="T25" t="n">
-        <v>1831.794262764886</v>
+        <v>1784.285268561324</v>
       </c>
       <c r="U25" t="n">
-        <v>1567.221342852186</v>
+        <v>1519.712348648624</v>
       </c>
       <c r="V25" t="n">
-        <v>1567.221342852186</v>
+        <v>1289.557807404393</v>
       </c>
       <c r="W25" t="n">
-        <v>1302.334119776882</v>
+        <v>1024.670584329089</v>
       </c>
       <c r="X25" t="n">
-        <v>1302.334119776882</v>
+        <v>821.2109803927279</v>
       </c>
       <c r="Y25" t="n">
-        <v>1106.071487595008</v>
+        <v>624.9483482108541</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6312,10 +6312,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O27" t="n">
         <v>1896.176478190825</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
@@ -6385,10 +6385,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6406,10 +6406,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6552,16 +6552,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6786,19 +6786,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,7 +6859,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311324</v>
@@ -6880,7 +6880,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6938,7 +6938,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7023,7 +7023,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N36" t="n">
         <v>1344.266747951538</v>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C37" t="n">
         <v>782.551295565682</v>
@@ -7081,16 +7081,16 @@
         <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.0944824954149</v>
@@ -7099,7 +7099,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,7 +7117,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7260,16 +7260,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517212</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7360,22 +7360,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,16 +7406,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7497,19 +7497,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7546,19 +7546,19 @@
         <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7634,19 +7634,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7734,16 +7734,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954152</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7825,13 +7825,13 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>422.286579409329</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8693,10 +8693,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>344.7025836476839</v>
+        <v>248.8400772687157</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -9164,28 +9164,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>344.7025836476838</v>
+        <v>381.8176570184029</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>103.7862464855152</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>344.7025836476826</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476844</v>
+        <v>133.2530576400225</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -22553,13 +22553,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>359.2461292285849</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>3.947639393708797</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>152.1350798790566</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>128.1651665445293</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,13 +23659,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>2.335964134057178</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>178.3446460444187</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2.335964134057605</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>16.14213605696682</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>105.0742887270128</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>20.89620635235279</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>141.7411607669885</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>120.4703674222811</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>72.06777291779835</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>64.64750517800758</v>
       </c>
       <c r="S25" t="n">
-        <v>111.681409439535</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,13 +24421,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>227.8529958317883</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>201.4250078969974</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35011.90913173269</v>
+        <v>35011.90913173268</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321415</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="D2" t="n">
         <v>41052.08849321416</v>
       </c>
       <c r="E2" t="n">
+        <v>39708.1786886983</v>
+      </c>
+      <c r="F2" t="n">
         <v>39708.17868869831</v>
       </c>
-      <c r="F2" t="n">
-        <v>39708.1786886983</v>
-      </c>
       <c r="G2" t="n">
+        <v>39708.17868869832</v>
+      </c>
+      <c r="H2" t="n">
         <v>39708.17868869831</v>
-      </c>
-      <c r="H2" t="n">
-        <v>39708.17868869832</v>
       </c>
       <c r="I2" t="n">
         <v>40402.9371974122</v>
       </c>
       <c r="J2" t="n">
-        <v>41052.08849321421</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="K2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="L2" t="n">
+        <v>41052.08849321421</v>
+      </c>
+      <c r="M2" t="n">
         <v>41052.08849321419</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>41052.08849321421</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>41052.08849321418</v>
-      </c>
-      <c r="O2" t="n">
-        <v>41052.08849321419</v>
       </c>
       <c r="P2" t="n">
         <v>41052.08849321419</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="J3" t="n">
-        <v>376527.1335735916</v>
+        <v>376527.1335735911</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363183</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26430,31 +26430,31 @@
         <v>21619.60799709188</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="I4" t="n">
-        <v>29610.46726018535</v>
+        <v>29610.46726018531</v>
       </c>
       <c r="J4" t="n">
         <v>12448.5078997516</v>
       </c>
       <c r="K4" t="n">
-        <v>12448.50789975161</v>
+        <v>12448.5078997516</v>
       </c>
       <c r="L4" t="n">
-        <v>12448.50789975161</v>
+        <v>12448.5078997516</v>
       </c>
       <c r="M4" t="n">
-        <v>12448.50789975161</v>
+        <v>12448.5078997516</v>
       </c>
       <c r="N4" t="n">
         <v>12448.50789975161</v>
       </c>
       <c r="O4" t="n">
-        <v>12448.50789975163</v>
+        <v>12448.5078997516</v>
       </c>
       <c r="P4" t="n">
         <v>12448.5078997516</v>
@@ -26482,10 +26482,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="I5" t="n">
         <v>98425.10428372194</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-761070.9343374496</v>
+        <v>-761372.9433055237</v>
       </c>
       <c r="C6" t="n">
         <v>-234013.585962625</v>
@@ -26528,34 +26528,34 @@
         <v>-234013.585962625</v>
       </c>
       <c r="E6" t="n">
-        <v>-805672.3615555137</v>
+        <v>-805739.5570457395</v>
       </c>
       <c r="F6" t="n">
-        <v>-78294.94756210723</v>
+        <v>-78362.14305233302</v>
       </c>
       <c r="G6" t="n">
-        <v>-78294.94756210719</v>
+        <v>-78362.14305233299</v>
       </c>
       <c r="H6" t="n">
-        <v>-78294.94756210721</v>
+        <v>-78362.14305233301</v>
       </c>
       <c r="I6" t="n">
-        <v>-107060.3523401269</v>
+        <v>-107092.8099049169</v>
       </c>
       <c r="J6" t="n">
-        <v>-451087.6688340444</v>
+        <v>-451087.6688340439</v>
       </c>
       <c r="K6" t="n">
-        <v>-74560.53526045282</v>
+        <v>-74560.5352604528</v>
       </c>
       <c r="L6" t="n">
-        <v>-74560.53526045282</v>
+        <v>-74560.53526045279</v>
       </c>
       <c r="M6" t="n">
         <v>-204202.8500993975</v>
       </c>
       <c r="N6" t="n">
-        <v>-93988.25325408466</v>
+        <v>-93988.25325408457</v>
       </c>
       <c r="O6" t="n">
         <v>-74560.53526045283</v>
@@ -26704,25 +26704,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26741,7 +26741,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26753,10 +26753,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.198799748375</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>82.60239272489565</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>242.3945798505987</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>16.03727598905948</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27588,7 +27588,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>105.2976195790723</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27616,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>117.4057584759494</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>4.810917530184952</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>142.1945044771459</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>55.86856961562732</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>232.2306763699189</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>139.9152527805791</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>56.01837628787177</v>
+        <v>168.5361712622697</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32084,7 +32084,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
         <v>609.6478166837925</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233463</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233463</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J25" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33032,13 +33032,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N27" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33272,10 +33272,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33506,13 +33506,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33743,10 +33743,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N36" t="n">
-        <v>405.6377363145776</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33980,19 +33980,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>340.4395077511235</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34217,7 +34217,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>379.4203056753705</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N42" t="n">
         <v>131.3417120833333</v>
@@ -34229,10 +34229,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34454,10 +34454,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N45" t="n">
-        <v>405.6377363145776</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,7 +34466,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34778,7 +34778,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35258,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35413,10 +35413,10 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>883.6236994779107</v>
+        <v>787.7611930989425</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
@@ -35425,7 +35425,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
         <v>463.1092954636242</v>
@@ -35732,7 +35732,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
         <v>478.3061046004592</v>
@@ -35884,28 +35884,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>800.2926980400159</v>
+        <v>837.4077714107349</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407865</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265655</v>
       </c>
       <c r="L20" t="n">
-        <v>559.3763608778471</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636244</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013279</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427828</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230595</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248959</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359034</v>
+        <v>641.3060585282419</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013279</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>69.86306410510592</v>
+        <v>69.86306410510599</v>
       </c>
       <c r="K25" t="n">
-        <v>230.3323070363592</v>
+        <v>230.3323070363594</v>
       </c>
       <c r="L25" t="n">
-        <v>344.0420196622378</v>
+        <v>344.042019662238</v>
       </c>
       <c r="M25" t="n">
-        <v>371.9180268855235</v>
+        <v>371.9180268855237</v>
       </c>
       <c r="N25" t="n">
-        <v>369.1415936595798</v>
+        <v>369.1415936595799</v>
       </c>
       <c r="O25" t="n">
-        <v>326.6377777146794</v>
+        <v>326.6377777146796</v>
       </c>
       <c r="P25" t="n">
-        <v>259.2417186371501</v>
+        <v>259.2417186371503</v>
       </c>
       <c r="Q25" t="n">
         <v>102.6788860299334</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N27" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36771,7 +36771,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36920,10 +36920,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37318,7 +37318,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37391,10 +37391,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N36" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37628,19 +37628,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>197.843263306679</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,7 +37865,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>237.2862717533522</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37877,10 +37877,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38102,10 +38102,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N45" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,7 +38114,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
